--- a/biology/Zoologie/Atrophaneura/Atrophaneura.xlsx
+++ b/biology/Zoologie/Atrophaneura/Atrophaneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Atrophaneura regroupe des lépidoptères (papillons) appartenant à la famille des Papilionidae, à la sous-famille des Papilioninae, à la tribu des Troidini.
 Ce sont de très grands papillons qui vivent dans le sud de l'Asie et en Océanie.
@@ -512,7 +524,9 @@
           <t>Espèce type</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Atrophaneura erythrosoma (Reakirt, 1864/5)</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Polydorus (Swainson, 1833)
 Pachliopta (Reakirt, 1865)
@@ -580,7 +596,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste alphabétique dans chaque groupe :
 Groupe du latreillei
@@ -609,7 +627,7 @@
 Atrophaneura semperi (C. &amp; R. Felder, 1861)
 Atrophaneura sycorax (Grose-Smith, 1885)
 Atrophaneura varuna (White, 1842)
-Atrophaneura zaleucus (Hewitson, [1865])
+Atrophaneura zaleucus (Hewitson, )
 Groupe du coon
 Atrophaneura coon (Fabricius, 1793)
 Atrophaneura palu (Martin, 1912)
@@ -620,7 +638,7 @@
 Atrophaneura antiphus (Fabricius, 1793)
 Atrophaneura atropos (Staudinger, 1888)
 Atrophaneura hector (Linnaeus, 1758)
-Atrophaneura jophon (Gray, [1853])
+Atrophaneura jophon (Gray, )
 Atrophaneura kotzebuea (Eschscholtz, 1821)
 Atrophaneura leytensis (Murayama, 1978)
 Atrophaneura liris (Godart, 1819)
